--- a/資料/設計/スケジュール/スケジュール表v0.5.xlsx
+++ b/資料/設計/スケジュール/スケジュール表v0.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\設計\スケジュール\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.Kitchen_Timer\資料\設計\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DF4780-39BB-42BD-99EA-1687E86A6F26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D002FB6B-7763-4E45-B4C2-FBBEB8F8B118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1084,13 +1084,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フローチャート図</t>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>v0.5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1132,6 +1125,13 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1853,6 +1853,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1873,48 +1885,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -2252,11 +2228,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BF51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="AD11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="7" topLeftCell="AG8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AV25" sqref="AV25"/>
+      <selection pane="bottomRight" activeCell="BE31" sqref="BE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2281,13 +2257,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
     </row>
     <row r="2" spans="1:58" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2" s="60"/>
@@ -2514,7 +2490,7 @@
       <c r="AY6" s="17">
         <v>44043</v>
       </c>
-      <c r="AZ6" s="107">
+      <c r="AZ6" s="100">
         <v>44044</v>
       </c>
       <c r="BA6" s="78">
@@ -2736,7 +2712,7 @@
         <f t="shared" ref="AY7:BE7" si="4">TEXT(WEEKDAY(AY6,1),"aaa")</f>
         <v>金</v>
       </c>
-      <c r="AZ7" s="108" t="str">
+      <c r="AZ7" s="101" t="str">
         <f t="shared" si="4"/>
         <v>土</v>
       </c>
@@ -3153,7 +3129,7 @@
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.4">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="107" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="55">
@@ -3345,7 +3321,7 @@
       </c>
     </row>
     <row r="11" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="104"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="35">
         <v>43999</v>
       </c>
@@ -3421,7 +3397,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="110" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="55">
@@ -3608,7 +3584,7 @@
     </row>
     <row r="13" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
-      <c r="B13" s="105"/>
+      <c r="B13" s="109"/>
       <c r="C13" s="50">
         <v>44000</v>
       </c>
@@ -3679,7 +3655,7 @@
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="108" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="35">
@@ -3855,7 +3831,7 @@
     </row>
     <row r="15" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
-      <c r="B15" s="104"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="35">
         <v>44000</v>
       </c>
@@ -4967,7 +4943,7 @@
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="55">
@@ -5101,57 +5077,57 @@
       <c r="AS24" s="23"/>
       <c r="AT24" s="23"/>
       <c r="AU24" s="13" t="str">
-        <f>IF(AND($C24&lt;=AU$6,AU$6&lt;=$D24),1,"")</f>
+        <f t="shared" ref="AU24:BF24" si="12">IF(AND($C24&lt;=AU$6,AU$6&lt;=$D24),1,"")</f>
         <v/>
       </c>
       <c r="AV24" s="13" t="str">
-        <f>IF(AND($C24&lt;=AV$6,AV$6&lt;=$D24),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AW24" s="13" t="str">
-        <f>IF(AND($C24&lt;=AW$6,AW$6&lt;=$D24),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AX24" s="13" t="str">
-        <f>IF(AND($C24&lt;=AX$6,AX$6&lt;=$D24),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AY24" s="13" t="str">
-        <f>IF(AND($C24&lt;=AY$6,AY$6&lt;=$D24),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AZ24" s="23" t="str">
-        <f>IF(AND($C24&lt;=AZ$6,AZ$6&lt;=$D24),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BA24" s="23" t="str">
-        <f>IF(AND($C24&lt;=BA$6,BA$6&lt;=$D24),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BB24" s="13" t="str">
-        <f>IF(AND($C24&lt;=BB$6,BB$6&lt;=$D24),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BC24" s="13">
-        <f>IF(AND($C24&lt;=BC$6,BC$6&lt;=$D24),1,"")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BD24" s="13" t="str">
-        <f>IF(AND($C24&lt;=BD$6,BD$6&lt;=$D24),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BE24" s="13" t="str">
-        <f>IF(AND($C24&lt;=BE$6,BE$6&lt;=$D24),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="BF24" s="38" t="str">
-        <f>IF(AND($C24&lt;=BF$6,BF$6&lt;=$D24),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="105"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="50"/>
       <c r="D25" s="51"/>
       <c r="E25" s="38">
@@ -5215,17 +5191,17 @@
     <row r="26" spans="1:58" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="93" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C26" s="55">
-        <v>44028</v>
+        <v>44032</v>
       </c>
       <c r="D26" s="56">
-        <v>44040</v>
+        <v>44033</v>
       </c>
       <c r="E26" s="97">
         <f>COUNTIF($F26:$AY26,"1")</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F26" s="61" t="str">
         <f>IF(AND($C26&lt;=F$6,F$6&lt;=$D26),1,"")</f>
@@ -5320,13 +5296,13 @@
         <f>IF(AND($C26&lt;=AI$6,AI$6&lt;=$D26),1,"")</f>
         <v/>
       </c>
-      <c r="AJ26" s="13">
+      <c r="AJ26" s="13" t="str">
         <f>IF(AND($C26&lt;=AJ$6,AJ$6&lt;=$D26),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="AK26" s="13">
+        <v/>
+      </c>
+      <c r="AK26" s="13" t="str">
         <f>IF(AND($C26&lt;=AK$6,AK$6&lt;=$D26),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AL26" s="23"/>
       <c r="AM26" s="23"/>
@@ -5338,60 +5314,60 @@
         <f>IF(AND($C26&lt;=AO$6,AO$6&lt;=$D26),1,"")</f>
         <v>1</v>
       </c>
-      <c r="AP26" s="13">
+      <c r="AP26" s="13" t="str">
         <f>IF(AND($C26&lt;=AP$6,AP$6&lt;=$D26),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AQ26" s="86"/>
       <c r="AR26" s="86"/>
       <c r="AS26" s="23"/>
       <c r="AT26" s="23"/>
-      <c r="AU26" s="13">
-        <f>IF(AND($C26&lt;=AU$6,AU$6&lt;=$D26),1,"")</f>
-        <v>1</v>
-      </c>
-      <c r="AV26" s="13">
-        <f>IF(AND($C26&lt;=AV$6,AV$6&lt;=$D26),1,"")</f>
-        <v>1</v>
+      <c r="AU26" s="13" t="str">
+        <f t="shared" ref="AU26:BF26" si="13">IF(AND($C26&lt;=AU$6,AU$6&lt;=$D26),1,"")</f>
+        <v/>
+      </c>
+      <c r="AV26" s="13" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
       <c r="AW26" s="13" t="str">
-        <f>IF(AND($C26&lt;=AW$6,AW$6&lt;=$D26),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AX26" s="13" t="str">
-        <f>IF(AND($C26&lt;=AX$6,AX$6&lt;=$D26),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AY26" s="13" t="str">
-        <f>IF(AND($C26&lt;=AY$6,AY$6&lt;=$D26),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AZ26" s="23" t="str">
-        <f>IF(AND($C26&lt;=AZ$6,AZ$6&lt;=$D26),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BA26" s="23" t="str">
-        <f>IF(AND($C26&lt;=BA$6,BA$6&lt;=$D26),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BB26" s="13" t="str">
-        <f>IF(AND($C26&lt;=BB$6,BB$6&lt;=$D26),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BC26" s="13" t="str">
-        <f>IF(AND($C26&lt;=BC$6,BC$6&lt;=$D26),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BD26" s="13" t="str">
-        <f>IF(AND($C26&lt;=BD$6,BD$6&lt;=$D26),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BE26" s="13" t="str">
-        <f>IF(AND($C26&lt;=BE$6,BE$6&lt;=$D26),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="BF26" s="38" t="str">
-        <f>IF(AND($C26&lt;=BF$6,BF$6&lt;=$D26),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -5460,12 +5436,12 @@
     </row>
     <row r="28" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="8"/>
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="102" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="51"/>
-      <c r="E28" s="110">
+      <c r="E28" s="103">
         <f>SUBTOTAL(9,E9,E10,E12,E14,E24,E16,E18)</f>
         <v>14</v>
       </c>
@@ -5527,7 +5503,7 @@
       <c r="A29" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="107" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="55">
@@ -5637,13 +5613,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AJ29" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AK29" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="13">
+        <v>1</v>
       </c>
       <c r="AL29" s="23"/>
       <c r="AM29" s="23"/>
@@ -5714,16 +5688,16 @@
     </row>
     <row r="30" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
-      <c r="B30" s="105"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="50">
         <v>44005</v>
       </c>
       <c r="D30" s="51">
-        <v>44006</v>
+        <v>44029</v>
       </c>
       <c r="E30" s="38">
         <f>COUNTIF($F30:$AY30,"1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="59"/>
       <c r="G30" s="13"/>
@@ -5759,7 +5733,9 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
+      <c r="AJ30" s="13">
+        <v>1</v>
+      </c>
       <c r="AK30" s="13"/>
       <c r="AL30" s="23"/>
       <c r="AM30" s="23"/>
@@ -5785,7 +5761,7 @@
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="104" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="55">
@@ -5892,13 +5868,11 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AJ31" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AK31" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="AJ31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="13">
+        <v>1</v>
       </c>
       <c r="AL31" s="23"/>
       <c r="AM31" s="23"/>
@@ -5947,34 +5921,34 @@
         <v/>
       </c>
       <c r="BB31" s="13" t="str">
-        <f t="shared" ref="AZ31:BF44" si="12">IF(AND($C31&lt;=BB$6,BB$6&lt;=$D31),1,"")</f>
+        <f t="shared" ref="AZ31:BF44" si="14">IF(AND($C31&lt;=BB$6,BB$6&lt;=$D31),1,"")</f>
         <v/>
       </c>
       <c r="BC31" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BD31" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BE31" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BF31" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:58" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4"/>
-      <c r="B32" s="101"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="35">
         <v>44012</v>
       </c>
       <c r="D32" s="49">
-        <v>44014</v>
+        <v>44028</v>
       </c>
       <c r="E32" s="38">
         <f>COUNTIF($F32:$AY32,"1")</f>
@@ -6196,31 +6170,31 @@
         <v/>
       </c>
       <c r="AZ33" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BA33" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BB33" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BC33" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BD33" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BE33" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BF33" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6448,31 +6422,31 @@
         <v>1</v>
       </c>
       <c r="AZ35" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BA35" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BB35" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BC35" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BD35" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BE35" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BF35" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6604,55 +6578,55 @@
         <v/>
       </c>
       <c r="U37" s="13" t="str">
-        <f t="shared" ref="U37:AJ44" si="13">IF(AND($C37&lt;=U$6,U$6&lt;=$D37),1,"")</f>
+        <f t="shared" ref="U37:AJ44" si="15">IF(AND($C37&lt;=U$6,U$6&lt;=$D37),1,"")</f>
         <v/>
       </c>
       <c r="V37" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W37" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X37" s="23"/>
       <c r="Y37" s="23"/>
       <c r="Z37" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA37" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AB37" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AC37" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD37" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE37" s="23"/>
       <c r="AF37" s="23"/>
       <c r="AG37" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH37" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AI37" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AJ37" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AK37" s="13" t="str">
@@ -6698,31 +6672,31 @@
         <v/>
       </c>
       <c r="AZ37" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BA37" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BB37" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BC37" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BD37" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BE37" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BF37" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -6861,115 +6835,107 @@
       <c r="B40" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="35">
-        <f>IF(D24="","",WORKDAY(D24,1,$B$50:$B$51))</f>
-        <v>44048</v>
-      </c>
-      <c r="D40" s="49">
-        <f>IF(C40="","",WORKDAY(C40,E40-1,$B$50:$B$51))</f>
-        <v>44047</v>
-      </c>
-      <c r="E40" s="38">
-        <v>0</v>
-      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="34" t="str">
-        <f t="shared" ref="F40:U44" si="14">IF(AND($C40&lt;=F$6,F$6&lt;=$D40),1,"")</f>
+        <f t="shared" ref="F40:U44" si="16">IF(AND($C40&lt;=F$6,F$6&lt;=$D40),1,"")</f>
         <v/>
       </c>
       <c r="G40" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H40" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I40" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="L40" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M40" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N40" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O40" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P40" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
       <c r="S40" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T40" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U40" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V40" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W40" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X40" s="23"/>
       <c r="Y40" s="23"/>
       <c r="Z40" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA40" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AB40" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AC40" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD40" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE40" s="23"/>
       <c r="AF40" s="23"/>
       <c r="AG40" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH40" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AI40" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AJ40" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AK40" s="13" t="str">
@@ -7015,31 +6981,31 @@
         <v/>
       </c>
       <c r="AZ40" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BA40" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BB40" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BC40" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BD40" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BE40" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BF40" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7109,7 +7075,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="35">
-        <f>IF(D40="","",WORKDAY(D40,1,$B$50:$B$51))</f>
+        <f>IF(D24="","",WORKDAY(D24,1,$B$50:$B$51))</f>
         <v>44048</v>
       </c>
       <c r="D42" s="49">
@@ -7120,103 +7086,103 @@
         <v>2</v>
       </c>
       <c r="F42" s="34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G42" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H42" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I42" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M42" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N42" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O42" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P42" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q42" s="23"/>
       <c r="R42" s="23"/>
       <c r="S42" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T42" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U42" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V42" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W42" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X42" s="23"/>
       <c r="Y42" s="23"/>
       <c r="Z42" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA42" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AB42" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AC42" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD42" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE42" s="23"/>
       <c r="AF42" s="23"/>
       <c r="AG42" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH42" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AI42" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AJ42" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AK42" s="13" t="str">
@@ -7262,31 +7228,31 @@
         <v/>
       </c>
       <c r="AZ42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BA42" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BB42" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BC42" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BD42" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BE42" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BF42" s="38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -7367,103 +7333,103 @@
         <v>1</v>
       </c>
       <c r="F44" s="34" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="G44" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H44" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I44" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M44" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N44" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O44" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P44" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q44" s="23"/>
       <c r="R44" s="23"/>
       <c r="S44" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T44" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U44" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V44" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W44" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X44" s="23"/>
       <c r="Y44" s="23"/>
       <c r="Z44" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA44" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AB44" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AC44" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD44" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE44" s="23"/>
       <c r="AF44" s="23"/>
       <c r="AG44" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH44" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AI44" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AJ44" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AK44" s="13" t="str">
@@ -7509,31 +7475,31 @@
         <v/>
       </c>
       <c r="AZ44" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BA44" s="23" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BB44" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BC44" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BD44" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BE44" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="BF44" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -7604,7 +7570,7 @@
       </c>
       <c r="C46" s="41"/>
       <c r="D46" s="99" t="str">
-        <f t="shared" ref="D46:D48" si="15">IF(C46="","",C46+E46-1)</f>
+        <f t="shared" ref="D46:D48" si="17">IF(C46="","",C46+E46-1)</f>
         <v/>
       </c>
       <c r="E46" s="47">
@@ -7671,7 +7637,7 @@
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E47">
@@ -7683,7 +7649,7 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="E48" s="1" t="s">
@@ -7723,17 +7689,17 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AG29:AK38 Z29:AD38 S29:W38 L29:P38 F29:I38 F40:I45 L40:P45 S40:W45 Z40:AD45 AG40:AK45 AN29:BF38 AN40:BF45 L8:P27 S8:W27 Z8:AD27 AG8:AK27 F8:I27 AN8:BF27">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>IF(F8=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:BF46">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>IF(F$6=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:BF11 F13:BF13 F15:BF15 F30:BF30 F32:BF32 F17:BF17 F19:BF19 F21:BF21 F23:BF23 F25:BF25 F27:BF27 F34:BF34 F36:BF36 F38:BF38">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7747,8 +7713,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8001,18 +7967,18 @@
         <v>44028</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
         <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/資料/設計/スケジュール/スケジュール表v0.5.xlsx
+++ b/資料/設計/スケジュール/スケジュール表v0.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.Kitchen_Timer\資料\設計\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D002FB6B-7763-4E45-B4C2-FBBEB8F8B118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF48730-6E28-4618-A1F6-C50ACBDE6617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2229,10 +2229,10 @@
   <dimension ref="A1:BF51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="AG8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="AG14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BE31" sqref="BE31"/>
+      <selection pane="bottomRight" activeCell="BE40" sqref="BE40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5378,7 +5378,7 @@
       <c r="D27" s="51"/>
       <c r="E27" s="98">
         <f>COUNTIF($F27:$AY27,"1")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
@@ -5414,8 +5414,12 @@
       <c r="AK27" s="15"/>
       <c r="AL27" s="24"/>
       <c r="AM27" s="24"/>
-      <c r="AN27" s="15"/>
-      <c r="AO27" s="15"/>
+      <c r="AN27" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="15">
+        <v>1</v>
+      </c>
       <c r="AP27" s="15"/>
       <c r="AQ27" s="87"/>
       <c r="AR27" s="87"/>
@@ -5952,7 +5956,7 @@
       </c>
       <c r="E32" s="38">
         <f>COUNTIF($F32:$AY32,"1")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="61"/>
       <c r="G32" s="13"/>
@@ -5989,7 +5993,9 @@
       <c r="AH32" s="13"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
+      <c r="AK32" s="13">
+        <v>1</v>
+      </c>
       <c r="AL32" s="23"/>
       <c r="AM32" s="23"/>
       <c r="AN32" s="13"/>
@@ -6205,7 +6211,7 @@
       <c r="D34" s="51"/>
       <c r="E34" s="98">
         <f>COUNTIF($F34:$AY34,"1")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F34" s="61"/>
       <c r="G34" s="13"/>
@@ -6245,15 +6251,25 @@
       <c r="AM34" s="23"/>
       <c r="AN34" s="13"/>
       <c r="AO34" s="13"/>
-      <c r="AP34" s="13"/>
+      <c r="AP34" s="13">
+        <v>1</v>
+      </c>
       <c r="AQ34" s="86"/>
       <c r="AR34" s="86"/>
       <c r="AS34" s="23"/>
       <c r="AT34" s="23"/>
-      <c r="AU34" s="13"/>
-      <c r="AV34" s="13"/>
-      <c r="AW34" s="13"/>
-      <c r="AX34" s="13"/>
+      <c r="AU34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AW34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AX34" s="13">
+        <v>1</v>
+      </c>
       <c r="AY34" s="13"/>
       <c r="AZ34" s="23"/>
       <c r="BA34" s="23"/>
@@ -6457,7 +6473,7 @@
       <c r="D36" s="51"/>
       <c r="E36" s="38">
         <f>COUNTIF($F36:$AY36,"1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="61"/>
       <c r="G36" s="13"/>
@@ -6504,7 +6520,9 @@
       <c r="AV36" s="13"/>
       <c r="AW36" s="13"/>
       <c r="AX36" s="13"/>
-      <c r="AY36" s="13"/>
+      <c r="AY36" s="13">
+        <v>1</v>
+      </c>
       <c r="AZ36" s="23"/>
       <c r="BA36" s="23"/>
       <c r="BB36" s="13"/>
@@ -6757,7 +6775,9 @@
       <c r="AY38" s="13"/>
       <c r="AZ38" s="23"/>
       <c r="BA38" s="23"/>
-      <c r="BB38" s="13"/>
+      <c r="BB38" s="13">
+        <v>1</v>
+      </c>
       <c r="BC38" s="13"/>
       <c r="BD38" s="13"/>
       <c r="BE38" s="13"/>

--- a/資料/設計/スケジュール/スケジュール表v0.5.xlsx
+++ b/資料/設計/スケジュール/スケジュール表v0.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.Kitchen_Timer\資料\設計\スケジュール\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\教育研修\新入社員教育\20年入社\PIC課題_キッチンタイマ\箱石\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF48730-6E28-4618-A1F6-C50ACBDE6617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B91D5F-C368-4E64-8575-52504689F209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
+    <workbookView xWindow="-21810" yWindow="7365" windowWidth="28800" windowHeight="13800" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1890,7 +1890,31 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2229,10 +2253,10 @@
   <dimension ref="A1:BF51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="AG14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="7" topLeftCell="AC23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BE40" sqref="BE40"/>
+      <selection pane="bottomRight" activeCell="AP35" sqref="AP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5183,8 +5207,12 @@
       <c r="AZ25" s="23"/>
       <c r="BA25" s="23"/>
       <c r="BB25" s="13"/>
-      <c r="BC25" s="13"/>
-      <c r="BD25" s="13"/>
+      <c r="BC25" s="13">
+        <v>1</v>
+      </c>
+      <c r="BD25" s="13">
+        <v>1</v>
+      </c>
       <c r="BE25" s="13"/>
       <c r="BF25" s="38"/>
     </row>
@@ -7333,7 +7361,9 @@
       <c r="BB43" s="13"/>
       <c r="BC43" s="13"/>
       <c r="BD43" s="13"/>
-      <c r="BE43" s="13"/>
+      <c r="BE43" s="13">
+        <v>1</v>
+      </c>
       <c r="BF43" s="38"/>
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.4">
@@ -7709,17 +7739,17 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AG29:AK38 Z29:AD38 S29:W38 L29:P38 F29:I38 F40:I45 L40:P45 S40:W45 Z40:AD45 AG40:AK45 AN29:BF38 AN40:BF45 L8:P27 S8:W27 Z8:AD27 AG8:AK27 F8:I27 AN8:BF27">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>IF(F8=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:BF46">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>IF(F$6=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:BF11 F13:BF13 F15:BF15 F30:BF30 F32:BF32 F17:BF17 F19:BF19 F21:BF21 F23:BF23 F25:BF25 F27:BF27 F34:BF34 F36:BF36 F38:BF38">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+  <conditionalFormatting sqref="F11:BF11 F13:BF13 F15:BF15 F30:BF30 F32:BF32 F17:BF17 F19:BF19 F21:BF21 F23:BF23 F25:BF25 F27:BF27 F34:BF34 F36:BF36 F38:BF38 F41:BF41 F43:BF43 F45:BF45">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
